--- a/output1_part1.xlsx
+++ b/output1_part1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,182 +537,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>b11</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>b12</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>b13</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>b14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>file2.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>b21</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>b22</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>b23</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>b24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>file2.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>b16</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>b17</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>b18</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>b19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>file2.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>b26</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>b27</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>b28</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>b29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>file2.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>c11</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>c12</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>c13</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>c14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>c15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>file3.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>c21</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>c22</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>c23</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>c24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>c25</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>file3.xlsx</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
